--- a/biology/Botanique/Clematis_viticella/Clematis_viticella.xlsx
+++ b/biology/Botanique/Clematis_viticella/Clematis_viticella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clematis viticella, la Clématite bleue ou fausse-vigne, est une espèce de plante grimpante semi-ligneuse, originaire d'Europe centrale et du sud. Elle fait partie de la famille des Ranunculaceae. Elle est très rustique.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floraison
-La floraison a lieu de juin à août[1].
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juin à août.
 Les fleurs sont petites, solitaires, souvent campanulées, de 2 à 4 cm de diamètre. Elles sont bleues, pourpres ou rouge-rosé, avec les anthères jaune pâle.
 </t>
         </is>
@@ -544,9 +561,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen, mais est indigène seulement de sa partie orientale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen, mais est indigène seulement de sa partie orientale.
 </t>
         </is>
       </c>
@@ -575,7 +594,9 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Clematis viticella se taille de 2 à 4 m de haut pour 1,50 m de diamètre.
 </t>
@@ -606,7 +627,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il existe beaucoup de cultivars :
 Clematis viticella 'Abundance' : feuilles vert clair, fleurs simples de 6 cm de diamètre, lie-de-vin à anthères crème.
